--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124112a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124112a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -488,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +532,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.10572950074503</v>
+      </c>
+      <c r="D5">
+        <v>3.392140686652902</v>
+      </c>
+      <c r="E5">
+        <v>2.595524914670427</v>
+      </c>
+      <c r="F5">
+        <v>3.801519962445005</v>
+      </c>
+      <c r="G5">
+        <v>6.080495728501765</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -562,19 +559,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.10572950074503</v>
+        <v>5.976035449443504</v>
       </c>
       <c r="D6">
-        <v>3.392140686652902</v>
+        <v>3.717758752778127</v>
       </c>
       <c r="E6">
-        <v>2.595524914670427</v>
+        <v>2.602428979737852</v>
       </c>
       <c r="F6">
-        <v>3.801519962445005</v>
+        <v>4.062545578680676</v>
       </c>
       <c r="G6">
-        <v>6.080495728501765</v>
+        <v>6.403746462083348</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -585,25 +582,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.976035449443504</v>
+        <v>5.726065832786598</v>
       </c>
       <c r="D7">
-        <v>3.717758752778127</v>
+        <v>3.939974055301707</v>
       </c>
       <c r="E7">
-        <v>2.602428979737852</v>
+        <v>2.938339659139324</v>
       </c>
       <c r="F7">
-        <v>4.062545578680676</v>
+        <v>4.778322935662588</v>
       </c>
       <c r="G7">
-        <v>6.403746462083348</v>
+        <v>6.922629892138545</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5.705446586612587</v>
+      </c>
+      <c r="D8">
+        <v>3.372393094285793</v>
+      </c>
+      <c r="E8">
+        <v>2.475324705729576</v>
+      </c>
+      <c r="F8">
+        <v>3.470792534197381</v>
+      </c>
+      <c r="G8">
+        <v>5.787911953506636</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -613,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.726065832786598</v>
+        <v>11.59420420385286</v>
       </c>
       <c r="D9">
-        <v>3.939974055301707</v>
+        <v>8.254530162702418</v>
       </c>
       <c r="E9">
-        <v>2.938339659139324</v>
+        <v>6.020645937615219</v>
       </c>
       <c r="F9">
-        <v>4.778322935662588</v>
+        <v>8.472887156131044</v>
       </c>
       <c r="G9">
-        <v>6.922629892138545</v>
+        <v>12.72869714918794</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -636,19 +651,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.705446586612587</v>
+        <v>6.269788609528693</v>
       </c>
       <c r="D10">
-        <v>3.372393094285793</v>
+        <v>3.611151093744206</v>
       </c>
       <c r="E10">
-        <v>2.475324705729576</v>
+        <v>2.620857062664615</v>
       </c>
       <c r="F10">
-        <v>3.470792534197381</v>
+        <v>3.70488056845653</v>
       </c>
       <c r="G10">
-        <v>5.787911953506636</v>
+        <v>6.455475564808933</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -659,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.59420420385286</v>
+        <v>6.512351399680265</v>
       </c>
       <c r="D11">
-        <v>8.254530162702418</v>
+        <v>3.745550271173594</v>
       </c>
       <c r="E11">
-        <v>6.020645937615219</v>
+        <v>2.969955259599499</v>
       </c>
       <c r="F11">
-        <v>8.472887156131044</v>
+        <v>4.394125690378891</v>
       </c>
       <c r="G11">
-        <v>12.72869714918794</v>
+        <v>6.744170318686604</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -682,25 +697,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.269788609528693</v>
+        <v>8.617844902262037</v>
       </c>
       <c r="D12">
-        <v>3.611151093744206</v>
+        <v>5.037468080623166</v>
       </c>
       <c r="E12">
-        <v>2.620857062664615</v>
+        <v>3.523781822775497</v>
       </c>
       <c r="F12">
-        <v>3.70488056845653</v>
+        <v>5.727643083251569</v>
       </c>
       <c r="G12">
-        <v>6.455475564808933</v>
+        <v>9.393881301644262</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>12.91227528174228</v>
+      </c>
+      <c r="D13">
+        <v>8.877088725297837</v>
+      </c>
+      <c r="E13">
+        <v>5.760457042673352</v>
+      </c>
+      <c r="F13">
+        <v>9.956089404303633</v>
+      </c>
+      <c r="G13">
+        <v>14.2743366273082</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -710,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.512351399680265</v>
+        <v>10.03861598948733</v>
       </c>
       <c r="D14">
-        <v>3.745550271173594</v>
+        <v>6.934886081310327</v>
       </c>
       <c r="E14">
-        <v>2.969955259599499</v>
+        <v>4.517776043263018</v>
       </c>
       <c r="F14">
-        <v>4.394125690378891</v>
+        <v>7.645523494819397</v>
       </c>
       <c r="G14">
-        <v>6.744170318686604</v>
+        <v>13.06542392046357</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -733,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.617844902262037</v>
+        <v>8.446764596621506</v>
       </c>
       <c r="D15">
-        <v>5.037468080623166</v>
+        <v>6.827322627645295</v>
       </c>
       <c r="E15">
-        <v>3.523781822775497</v>
+        <v>4.636796862814598</v>
       </c>
       <c r="F15">
-        <v>5.727643083251569</v>
+        <v>6.674058136258643</v>
       </c>
       <c r="G15">
-        <v>9.393881301644262</v>
+        <v>10.23442828843285</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -756,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.91227528174228</v>
+        <v>13.75439957694691</v>
       </c>
       <c r="D16">
-        <v>8.877088725297837</v>
+        <v>13.32794913282037</v>
       </c>
       <c r="E16">
-        <v>5.760457042673352</v>
+        <v>8.568556187260329</v>
       </c>
       <c r="F16">
-        <v>9.956089404303633</v>
+        <v>9.851259494434519</v>
       </c>
       <c r="G16">
-        <v>14.2743366273082</v>
+        <v>16.73173330548401</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -779,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.03861598948733</v>
+        <v>6.337282548281007</v>
       </c>
       <c r="D17">
-        <v>6.934886081310327</v>
+        <v>4.666277752136621</v>
       </c>
       <c r="E17">
-        <v>4.517776043263018</v>
+        <v>3.587023540864393</v>
       </c>
       <c r="F17">
-        <v>7.645523494819397</v>
+        <v>4.877425230356435</v>
       </c>
       <c r="G17">
-        <v>13.06542392046357</v>
+        <v>8.194365027673522</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -802,25 +835,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.446764596621506</v>
+        <v>11.74168047059585</v>
       </c>
       <c r="D18">
-        <v>6.827322627645295</v>
+        <v>7.653675734502754</v>
       </c>
       <c r="E18">
-        <v>4.636796862814598</v>
+        <v>5.22962705758344</v>
       </c>
       <c r="F18">
-        <v>6.674058136258643</v>
+        <v>7.769137384681653</v>
       </c>
       <c r="G18">
-        <v>10.23442828843285</v>
+        <v>13.44351621113692</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>11.69317065244053</v>
+      </c>
+      <c r="D19">
+        <v>6.401524844937679</v>
+      </c>
+      <c r="E19">
+        <v>4.895246003140828</v>
+      </c>
+      <c r="F19">
+        <v>7.052949928265715</v>
+      </c>
+      <c r="G19">
+        <v>12.08475005952241</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -830,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.75439957694691</v>
+        <v>8.018584491046074</v>
       </c>
       <c r="D20">
-        <v>13.32794913282037</v>
+        <v>4.418447300527082</v>
       </c>
       <c r="E20">
-        <v>8.568556187260329</v>
+        <v>3.23784051870862</v>
       </c>
       <c r="F20">
-        <v>9.851259494434519</v>
+        <v>5.604293695193507</v>
       </c>
       <c r="G20">
-        <v>16.73173330548401</v>
+        <v>8.336675918460278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -853,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.337282548281007</v>
+        <v>15.05908040531419</v>
       </c>
       <c r="D21">
-        <v>4.666277752136621</v>
+        <v>8.671496447839361</v>
       </c>
       <c r="E21">
-        <v>3.587023540864393</v>
+        <v>6.632862385581006</v>
       </c>
       <c r="F21">
-        <v>4.877425230356435</v>
+        <v>12.85224438905852</v>
       </c>
       <c r="G21">
-        <v>8.194365027673522</v>
+        <v>16.7921570772392</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -876,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.74168047059585</v>
+        <v>17.19988235328317</v>
       </c>
       <c r="D22">
-        <v>7.653675734502754</v>
+        <v>9.435665414595981</v>
       </c>
       <c r="E22">
-        <v>5.22962705758344</v>
+        <v>6.871321971186088</v>
       </c>
       <c r="F22">
-        <v>7.769137384681653</v>
+        <v>13.37856941745204</v>
       </c>
       <c r="G22">
-        <v>13.44351621113692</v>
+        <v>13.41010361493089</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -899,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.69317065244053</v>
+        <v>4.229274194575787</v>
       </c>
       <c r="D23">
-        <v>6.401524844937679</v>
+        <v>2.641423975816012</v>
       </c>
       <c r="E23">
-        <v>4.895246003140828</v>
+        <v>1.96418273510481</v>
       </c>
       <c r="F23">
-        <v>7.052949928265715</v>
+        <v>2.847862094175835</v>
       </c>
       <c r="G23">
-        <v>12.08475005952241</v>
+        <v>4.637764564074551</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -922,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.018584491046074</v>
+        <v>11.70588994020808</v>
       </c>
       <c r="D24">
-        <v>4.418447300527082</v>
+        <v>10.46138064628093</v>
       </c>
       <c r="E24">
-        <v>3.23784051870862</v>
+        <v>5.410321809420506</v>
       </c>
       <c r="F24">
-        <v>5.604293695193507</v>
+        <v>8.318024315393188</v>
       </c>
       <c r="G24">
-        <v>8.336675918460278</v>
+        <v>15.46289827995497</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -945,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.05908040531419</v>
+        <v>9.137900997593514</v>
       </c>
       <c r="D25">
-        <v>8.671496447839361</v>
+        <v>6.378427299373929</v>
       </c>
       <c r="E25">
-        <v>6.632862385581006</v>
+        <v>4.613287576433751</v>
       </c>
       <c r="F25">
-        <v>12.85224438905852</v>
+        <v>5.64019762150286</v>
       </c>
       <c r="G25">
-        <v>16.7921570772392</v>
+        <v>10.79866603599297</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -968,25 +1019,43 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>17.19988235328317</v>
+        <v>7.281393581008858</v>
       </c>
       <c r="D26">
-        <v>9.435665414595981</v>
+        <v>4.704373816026497</v>
       </c>
       <c r="E26">
-        <v>6.871321971186088</v>
+        <v>3.734214053085317</v>
       </c>
       <c r="F26">
-        <v>13.37856941745204</v>
+        <v>4.926772344862705</v>
       </c>
       <c r="G26">
-        <v>13.41010361493089</v>
+        <v>9.089104552444068</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>8.09799328245062</v>
+      </c>
+      <c r="D27">
+        <v>4.569855531381092</v>
+      </c>
+      <c r="E27">
+        <v>3.77508433057174</v>
+      </c>
+      <c r="F27">
+        <v>5.82457818758136</v>
+      </c>
+      <c r="G27">
+        <v>8.413642646921948</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
@@ -996,144 +1065,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4.229274194575787</v>
+        <v>8.875113870938092</v>
       </c>
       <c r="D28">
-        <v>2.641423975816012</v>
+        <v>5.911385268256816</v>
       </c>
       <c r="E28">
-        <v>1.96418273510481</v>
+        <v>4.256984801968604</v>
       </c>
       <c r="F28">
-        <v>2.847862094175835</v>
+        <v>8.458586967953563</v>
       </c>
       <c r="G28">
-        <v>4.637764564074551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>11.70588994020808</v>
-      </c>
-      <c r="D29">
-        <v>10.46138064628093</v>
-      </c>
-      <c r="E29">
-        <v>5.410321809420506</v>
-      </c>
-      <c r="F29">
-        <v>8.318024315393188</v>
-      </c>
-      <c r="G29">
-        <v>15.46289827995497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>9.137900997593514</v>
-      </c>
-      <c r="D30">
-        <v>6.378427299373929</v>
-      </c>
-      <c r="E30">
-        <v>4.613287576433751</v>
-      </c>
-      <c r="F30">
-        <v>5.64019762150286</v>
-      </c>
-      <c r="G30">
-        <v>10.79866603599297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>7.281393581008858</v>
-      </c>
-      <c r="D31">
-        <v>4.704373816026497</v>
-      </c>
-      <c r="E31">
-        <v>3.734214053085317</v>
-      </c>
-      <c r="F31">
-        <v>4.926772344862705</v>
-      </c>
-      <c r="G31">
-        <v>9.089104552444068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>8.09799328245062</v>
-      </c>
-      <c r="D32">
-        <v>4.569855531381092</v>
-      </c>
-      <c r="E32">
-        <v>3.77508433057174</v>
-      </c>
-      <c r="F32">
-        <v>5.82457818758136</v>
-      </c>
-      <c r="G32">
-        <v>8.413642646921948</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>8.875113870938092</v>
-      </c>
-      <c r="D33">
-        <v>5.911385268256816</v>
-      </c>
-      <c r="E33">
-        <v>4.256984801968604</v>
-      </c>
-      <c r="F33">
-        <v>8.458586967953563</v>
-      </c>
-      <c r="G33">
         <v>9.325587907650309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
